--- a/PCC/QEDm/all-profiles.xlsx
+++ b/PCC/QEDm/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0-comment1</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-05T09:53:44-05:00</t>
+    <t>2024-12-05T12:45:27-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
